--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,82 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25883BAB-CAAA-44FD-B5E2-FE53C5052C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>ACUST0001</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>A/R Invoices - ACUST0001</t>
+  </si>
+  <si>
+    <t>Incoming Payments - ACUST0001</t>
+  </si>
+  <si>
+    <t>Interest Payable</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
-    <numFmt numFmtId="165" formatCode="wrap_text=True"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DC143C"/>
-        <bgColor rgb="00DC143C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00198754"/>
-        <bgColor rgb="00198754"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,123 +121,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,148 +466,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="30.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="7" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="44.7109375" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>ACUST0001</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>reference No.</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="n">
-        <v>24968</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>45063</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>1404</v>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>A/R Invoices - ACUST0001</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="n"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>24992</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1407</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>700</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>24969</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>45063</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Incoming Payments - ACUST0001</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>Reconciliation Failure</t>
-        </is>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>24993</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45064</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>700</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="5" t="n">
-        <v>45063</v>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Interest Payable</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <v>45064</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>Value: Another user or another operation modified data; to continue, open the window again (ODBC -2039)  [Message 131-183]</t>
-        </is>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25883BAB-CAAA-44FD-B5E2-FE53C5052C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71611D82-B26E-495D-9ECB-80B4601DE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,46 +516,46 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>24992</v>
+        <v>25002</v>
       </c>
       <c r="B3" s="5">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C3" s="6">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>24993</v>
+        <v>25003</v>
       </c>
       <c r="B4" s="5">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="C4" s="6">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71611D82-B26E-495D-9ECB-80B4601DE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EBE12D-754A-4B5E-BEFA-67344187E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,39 +516,39 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>25002</v>
+        <v>25005</v>
       </c>
       <c r="B3" s="5">
         <v>45065</v>
       </c>
       <c r="C3" s="6">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>25003</v>
+        <v>25006</v>
       </c>
       <c r="B4" s="5">
         <v>45065</v>
       </c>
       <c r="C4" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EBE12D-754A-4B5E-BEFA-67344187E692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C24F4-D3E1-4318-9F66-C1A1061A0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Bank statement:</t>
   </si>
   <si>
-    <t>ACUST0001</t>
-  </si>
-  <si>
     <t>Transaction ID</t>
   </si>
   <si>
@@ -49,13 +46,16 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>A/R Invoices - ACUST0001</t>
-  </si>
-  <si>
-    <t>Incoming Payments - ACUST0001</t>
-  </si>
-  <si>
     <t>Interest Payable</t>
+  </si>
+  <si>
+    <t>A/R Invoices - ACUST0006</t>
+  </si>
+  <si>
+    <t>Incoming Payments - ACUST0006</t>
+  </si>
+  <si>
+    <t>ACUST0006</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,80 +488,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>25005</v>
+        <v>25014</v>
       </c>
       <c r="B3" s="5">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C3" s="6">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>25006</v>
+        <v>25015</v>
       </c>
       <c r="B4" s="5">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="C4" s="6">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,112 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C24F4-D3E1-4318-9F66-C1A1061A0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Interest Payable</t>
-  </si>
-  <si>
-    <t>A/R Invoices - ACUST0006</t>
-  </si>
-  <si>
-    <t>Incoming Payments - ACUST0006</t>
-  </si>
-  <si>
-    <t>ACUST0006</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
+    <numFmt numFmtId="165" formatCode="wrap_text=True"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC143C"/>
+        <bgColor rgb="00DC143C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,52 +85,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,112 +495,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="30.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="7" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="44.7109375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>ACUST0006</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>reference No.</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="n">
         <v>25014</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="5" t="n">
         <v>45069</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="n">
         <v>1415</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>A/R Invoices - ACUST0006</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="n"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>25015</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="n">
         <v>45069</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="n">
         <v>2025</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Incoming Payments - ACUST0006</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>Reconciliation Failure</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="5" t="n">
         <v>45069</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Interest Payable</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>Value: Another user or another operation modified data; to continue, open the window again (ODBC -2039)  [Message 131-183]</t>
+        </is>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C24F4-D3E1-4318-9F66-C1A1061A0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A49DF4-C502-4330-84BD-EC15696525E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Transaction date</t>
   </si>
   <si>
-    <t>reference No.</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -46,16 +43,16 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Interest Payable</t>
-  </si>
-  <si>
-    <t>A/R Invoices - ACUST0006</t>
-  </si>
-  <si>
-    <t>Incoming Payments - ACUST0006</t>
-  </si>
-  <si>
-    <t>ACUST0006</t>
+    <t>Bank Charge</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
   </si>
 </sst>
 </file>
@@ -67,14 +64,6 @@
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,6 +89,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,37 +117,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,114 +469,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="10">
+        <v>161012</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45071</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45072</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>25015</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45071</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>45071</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>25014</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45069</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1415</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>25015</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45069</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
-        <v>45069</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D7" s="5">
         <v>50</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,105 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A49DF4-C502-4330-84BD-EC15696525E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,57 +74,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,123 +483,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n">
         <v>161012</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C1" s="10" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>45071</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="G2" s="11" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>45072</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="11" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>25015</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="n">
         <v>45071</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="C6" s="3" t="n">
+        <v>2033</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
+      <c r="G6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>25016</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>45071</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,61 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6200A06-C660-4D91-83F4-DA465C93F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,117 +117,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,160 +462,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="3"/>
-    <col width="25.7109375" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" customWidth="1" min="5" max="5"/>
-    <col width="11.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.140625" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>161012</v>
       </c>
-      <c r="C1" s="10" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="11" t="n"/>
-      <c r="G1" s="11" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>From Date:</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>45071</v>
-      </c>
-      <c r="G2" s="11" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>To Date:</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>45072</v>
-      </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Reference No.</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="n">
-        <v>25015</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>45071</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>2033</v>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>25016</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>45071</v>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="9" t="n"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45075</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45077</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>25545</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45075</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2034</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>240</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>25546</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45075</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>25545</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2034</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>12000</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>25546</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>250</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6200A06-C660-4D91-83F4-DA465C93F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2002E83-A929-4523-B3C5-69A555DEE9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>25545</v>
+        <v>25547</v>
       </c>
       <c r="B8" s="3">
         <v>45077</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>25546</v>
+        <v>25548</v>
       </c>
       <c r="B9" s="3">
         <v>45077</v>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2002E83-A929-4523-B3C5-69A555DEE9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FC486-B4B9-4E59-86F2-EC0489DEB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="420" windowWidth="13500" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>45077</v>
       </c>
       <c r="C8" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2FC486-B4B9-4E59-86F2-EC0489DEB8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8AABC1-FAF1-4B60-94F7-742F7724E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="420" windowWidth="13500" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45077</v>
+        <v>45052</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>
@@ -616,6 +616,150 @@
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
     </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>25549</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1440</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>25551</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2037</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>960</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>25552</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>25553</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2038</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>3360</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>25554</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>25555</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45083</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2039</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>2400</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>25556</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45083</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8AABC1-FAF1-4B60-94F7-742F7724E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E69EF6-FFF5-49C3-BA33-5048CCA27D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45052</v>
+        <v>45083</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E69EF6-FFF5-49C3-BA33-5048CCA27D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21071BD7-F3EA-4379-A1BB-F01C0F7B2FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45083</v>
+        <v>45077</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>
@@ -617,146 +617,74 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>25549</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45082</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2036</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>1440</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>25550</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45082</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>25551</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45082</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2037</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>960</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>25552</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45082</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>25553</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45082</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2038</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>3360</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>25554</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45082</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20</v>
-      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>25555</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45083</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2039</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>2400</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>25556</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45083</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="7"/>
     </row>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,105 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21071BD7-F3EA-4379-A1BB-F01C0F7B2FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,51 +72,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,231 +475,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25545</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25546</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25547</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>12000</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25548</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,13 +50,23 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -102,6 +112,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +613,7 @@
       <c r="F6" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="G6" s="7" t="n"/>
+      <c r="G6" s="11" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -619,7 +632,11 @@
         <v>20</v>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -640,7 +657,7 @@
       <c r="F8" s="4" t="n">
         <v>12000</v>
       </c>
-      <c r="G8" s="7" t="n"/>
+      <c r="G8" s="11" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -659,7 +676,7 @@
         <v>250</v>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="7" t="n"/>
+      <c r="G9" s="11" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,59 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD056B56-9E37-4934-A33B-975D0F2FEF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,110 +118,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,263 +462,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="3"/>
-    <col width="25.7109375" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" customWidth="1" min="5" max="5"/>
-    <col width="11.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.140625" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>161012</v>
       </c>
-      <c r="C1" s="8" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>From Date:</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="C1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>45075</v>
       </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>To Date:</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>45077</v>
       </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Reference No.</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>25545</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>45075</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>25546</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>45075</v>
       </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>25547</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>45077</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>2035</v>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>12000</v>
       </c>
-      <c r="G8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>25548</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>45077</v>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
         <v>250</v>
       </c>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,105 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD056B56-9E37-4934-A33B-975D0F2FEF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,51 +72,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,231 +475,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25545</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25546</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25547</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2035</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>12000</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25548</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD056B56-9E37-4934-A33B-975D0F2FEF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360F003-CFAA-4A20-AC11-51C6907194B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>25545</v>
       </c>
       <c r="B6" s="3">
-        <v>45075</v>
+        <v>45110</v>
       </c>
       <c r="C6" s="2">
         <v>2034</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>240</v>
+        <v>18720</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -568,51 +568,33 @@
         <v>25546</v>
       </c>
       <c r="B7" s="3">
-        <v>45075</v>
+        <v>45110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>25547</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45077</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2035</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>12000</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>25548</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45077</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>250</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
     </row>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,105 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360F003-CFAA-4A20-AC11-51C6907194B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,51 +72,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,213 +475,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25545</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25546</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360F003-CFAA-4A20-AC11-51C6907194B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FF3531-3C15-4CCD-9E55-1621A1361352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45075</v>
+        <v>45108</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45077</v>
+        <v>45110</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,108 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FF3531-3C15-4CCD-9E55-1621A1361352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,52 +81,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,213 +488,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45108</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25545</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25546</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,72 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875F9EE-A345-4FE5-B55C-ACB3FCC8B795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00ffffff"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00198754"/>
-        <bgColor rgb="00198754"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,113 +124,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,245 +471,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="3"/>
-    <col width="25.7109375" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" customWidth="1" min="5" max="5"/>
-    <col width="11.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.140625" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>161012</v>
       </c>
-      <c r="C1" s="8" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>From Date:</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>45108</v>
-      </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>To Date:</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="C1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45104</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45111</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>25545</v>
+      </c>
+      <c r="B6" s="3">
         <v>45110</v>
       </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Reference No.</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="C6" s="2">
+        <v>2034</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>18720</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>25546</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45110</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>500</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>25545</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>45110</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B8" s="3">
+        <v>45111</v>
+      </c>
+      <c r="C8" s="2">
         <v>2034</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n">
-        <v>18720</v>
-      </c>
-      <c r="G6" s="11" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>14040</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>25546</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>45110</v>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="B9" s="3">
+        <v>45111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>250</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>25545</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2034</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>37440</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25546</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
         <v>500</v>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>Reconciliation Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="11" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875F9EE-A345-4FE5-B55C-ACB3FCC8B795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A0C04-AF42-4D8B-AF64-D605FA61D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,46 +555,46 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>25545</v>
+        <v>25549</v>
       </c>
       <c r="B6" s="3">
-        <v>45110</v>
+        <v>45104</v>
       </c>
       <c r="C6" s="2">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>18720</v>
+        <v>37440</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>25546</v>
+        <v>25550</v>
       </c>
       <c r="B7" s="3">
-        <v>45110</v>
+        <v>45104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>25545</v>
+        <v>25551</v>
       </c>
       <c r="B8" s="3">
-        <v>45111</v>
+        <v>45110</v>
       </c>
       <c r="C8" s="2">
         <v>2034</v>
@@ -604,97 +604,73 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>14040</v>
+        <v>18720</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>25546</v>
+        <v>25552</v>
       </c>
       <c r="B9" s="3">
-        <v>45111</v>
+        <v>45110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>25545</v>
+        <v>25553</v>
       </c>
       <c r="B10" s="3">
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="C10" s="2">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>37440</v>
+        <v>14040</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>25546</v>
+        <v>25554</v>
       </c>
       <c r="B11" s="3">
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A0C04-AF42-4D8B-AF64-D605FA61D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411578AD-4978-48EC-A40D-462B081A285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,38 +626,20 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>25553</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45111</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2035</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>14040</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>25554</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45111</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>250</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
     </row>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411578AD-4978-48EC-A40D-462B081A285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4C095-CC01-4A2A-AE4B-B5C1F0D579AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,38 +590,20 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>25551</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45110</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2034</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>18720</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>25552</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45110</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>500</v>
-      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="11"/>
     </row>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4C095-CC01-4A2A-AE4B-B5C1F0D579AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20267855-D761-40A2-8703-E9F283CA95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>37440</v>
+        <v>28080</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -584,26 +584,44 @@
         <v>11</v>
       </c>
       <c r="E7" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="2">
+        <v>25549</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>37440</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45104</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11"/>
     </row>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,111 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20267855-D761-40A2-8703-E9F283CA95E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,54 +78,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,207 +484,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="11" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,65 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B43F6A-9843-4A21-BD64-38B90FA8003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,113 +124,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -484,239 +471,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="3"/>
-    <col width="25.7109375" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" customWidth="1" min="5" max="5"/>
-    <col width="11.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.140625" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>161012</v>
       </c>
-      <c r="C1" s="8" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>From Date:</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="C1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45103</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45111</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>25549</v>
+      </c>
+      <c r="B6" s="3">
         <v>45104</v>
       </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>To Date:</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>45111</v>
-      </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Reference No.</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="C6" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>28080</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>25549</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B8" s="3">
         <v>45104</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C8" s="2">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n">
-        <v>28080</v>
-      </c>
-      <c r="G6" s="11" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>37440</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>25550</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B9" s="3">
         <v>45104</v>
       </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="11" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>25549</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n">
-        <v>37440</v>
-      </c>
-      <c r="G8" s="11" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>25550</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,111 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B43F6A-9843-4A21-BD64-38B90FA8003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,54 +78,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,207 +484,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="11" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -15,8 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="wrap_text=True"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -56,13 +58,23 @@
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC143C"/>
+        <bgColor rgb="00DC143C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -110,6 +122,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +627,11 @@
       <c r="F6" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G6" s="11" t="n"/>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>Reconciliation Failure</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -628,7 +650,11 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="11" t="n"/>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Value: Internal error (-5002) occurred</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -649,7 +675,7 @@
       <c r="F8" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G8" s="11" t="n"/>
+      <c r="G8" s="12" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -668,7 +694,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="11" t="n"/>
+      <c r="G9" s="12" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -63,7 +63,7 @@
       <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -74,6 +74,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DC143C"/>
         <bgColor rgb="00DC143C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -128,6 +134,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +639,7 @@
       <c r="F6" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Reconciliation Failure</t>
         </is>
@@ -650,9 +662,9 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>Value: Internal error (-5002) occurred</t>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
         </is>
       </c>
     </row>
@@ -675,7 +687,7 @@
       <c r="F8" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G8" s="12" t="n"/>
+      <c r="G8" s="14" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -694,7 +706,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="12" t="n"/>
+      <c r="G9" s="14" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -639,7 +639,7 @@
       <c r="F6" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>Reconciliation Failure</t>
         </is>
@@ -662,9 +662,9 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="15" t="inlineStr">
-        <is>
-          <t>Reconciliation Success</t>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Value: Internal error (-5002) occurred</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       <c r="F8" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G8" s="14" t="n"/>
+      <c r="G8" s="12" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -706,7 +706,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="14" t="n"/>
+      <c r="G9" s="12" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,86 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E85CCC-5BAF-4C76-A6D2-648703A48228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+  <si>
+    <t>Bank statement:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Incoming Payment</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="wrap_text=True"/>
+    <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFA31515"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DC143C"/>
-        <bgColor rgb="00DC143C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00198754"/>
-        <bgColor rgb="00198754"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,126 +126,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -514,247 +477,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="3"/>
-    <col width="25.7109375" customWidth="1" min="4" max="4"/>
-    <col width="10.7109375" customWidth="1" min="5" max="5"/>
-    <col width="11.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.140625" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Bank statement:</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>161012</v>
       </c>
-      <c r="C1" s="8" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>From Date:</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="C1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>45103</v>
       </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>To Date:</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>45111</v>
       </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Transaction date</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Reference No.</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debit </t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="E3" s="1"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>25549</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
+        <v>45103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2036</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>9360</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45103</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>25551</v>
+      </c>
+      <c r="B8" s="3">
         <v>45104</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n">
+      <c r="C8" s="2">
+        <v>2038</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>18720</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>25552</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>25553</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45104</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2040</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>28080</v>
       </c>
-      <c r="G6" s="12" t="inlineStr">
-        <is>
-          <t>Reconciliation Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>25550</v>
-      </c>
-      <c r="B7" s="3" t="n">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25554</v>
+      </c>
+      <c r="B11" s="3">
         <v>45104</v>
       </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>Value: Internal error (-5002) occurred</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>25549</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="C11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>25555</v>
+      </c>
+      <c r="B12" s="3">
         <v>45104</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>2036</v>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Incoming Payment</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n">
+      <c r="C12" s="2">
+        <v>2042</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>37440</v>
       </c>
-      <c r="G8" s="12" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>25550</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Bank Charge</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="12" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>25556</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45110</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2043</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>18720</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>25557</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45111</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2044</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>14040</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,117 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E85CCC-5BAF-4C76-A6D2-648703A48228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,58 +89,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,273 +505,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>9360</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25551</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25552</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n">
         <v>25553</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>25554</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n">
         <v>25555</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="n">
         <v>45104</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>2042</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n">
         <v>37440</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>25556</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>2043</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n">
         <v>25557</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="n">
         <v>45111</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>2044</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n">
         <v>14040</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E85CCC-5BAF-4C76-A6D2-648703A48228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDA8C47-AABA-49FA-B0C0-4AD40FA10A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Bank statement:</t>
   </si>
@@ -158,10 +158,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +481,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>
@@ -564,7 +564,7 @@
         <v>25549</v>
       </c>
       <c r="B6" s="3">
-        <v>45103</v>
+        <v>45112</v>
       </c>
       <c r="C6" s="2">
         <v>2036</v>
@@ -583,7 +583,7 @@
         <v>25550</v>
       </c>
       <c r="B7" s="3">
-        <v>45103</v>
+        <v>45112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
@@ -600,7 +600,7 @@
         <v>25551</v>
       </c>
       <c r="B8" s="3">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="C8" s="2">
         <v>2038</v>
@@ -619,7 +619,7 @@
         <v>25552</v>
       </c>
       <c r="B9" s="3">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
@@ -636,7 +636,7 @@
         <v>25553</v>
       </c>
       <c r="B10" s="3">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="C10" s="2">
         <v>2040</v>
@@ -651,77 +651,39 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>25554</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45104</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>200</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>25555</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45104</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2042</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>37440</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>25556</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45110</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2043</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>18720</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>25557</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45111</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2044</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>14040</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,117 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDA8C47-AABA-49FA-B0C0-4AD40FA10A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-  <si>
-    <t>Bank Charge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,58 +89,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,235 +505,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45108</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>9360</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>25550</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>25551</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>2038</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>25552</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Bank Charge</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n">
         <v>25553</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>2040</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n">
         <v>28080</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
+    <numFmt numFmtId="165" formatCode="wrap_text=True"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -63,7 +64,7 @@
       <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -74,6 +75,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00198754"/>
         <bgColor rgb="00198754"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC143C"/>
+        <bgColor rgb="00DC143C"/>
       </patternFill>
     </fill>
   </fills>
@@ -89,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -131,6 +138,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +643,11 @@
       <c r="F6" s="4" t="n">
         <v>9360</v>
       </c>
-      <c r="G6" s="13" t="n"/>
+      <c r="G6" s="15" t="inlineStr">
+        <is>
+          <t>Reconciliation Failure</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -649,9 +666,9 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="n"/>
-      <c r="G7" s="14" t="inlineStr">
-        <is>
-          <t>Reconciliation Success</t>
+      <c r="G7" s="16" t="inlineStr">
+        <is>
+          <t>Value: Internal error (-5002) occurred</t>
         </is>
       </c>
     </row>
@@ -674,7 +691,7 @@
       <c r="F8" s="4" t="n">
         <v>18720</v>
       </c>
-      <c r="G8" s="13" t="n"/>
+      <c r="G8" s="15" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -693,7 +710,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="4" t="n"/>
-      <c r="G9" s="13" t="n"/>
+      <c r="G9" s="15" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n">

--- a/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
+++ b/RobocorpTestRobots/SAP-Project/OBNK-Sheet.xlsx
@@ -1,114 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\RpaBuildTest\RpaTesting\RobocorpTestRobots\SAP-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BF706-3068-44F1-B2CF-A0AF09C89AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Bank statement:</t>
-  </si>
-  <si>
-    <t>From Date:</t>
-  </si>
-  <si>
-    <t>To Date:</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Reference No.</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit </t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Incoming Payment</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFA31515"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,58 +89,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,199 +505,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.7109375" customWidth="1" min="5" max="5"/>
+    <col width="11.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.140625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Bank statement:</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="n">
         <v>161012</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C1" s="8" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>From Date:</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45108</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="G2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>To Date:</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Transaction date</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Reference No.</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debit </t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>25549</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>45112</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>2036</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Incoming Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
         <v>46800</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="G6" s="13" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>Reconciliation Success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
